--- a/src/test/resources/xlsx/shopItem.xlsx
+++ b/src/test/resources/xlsx/shopItem.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="商店物品" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -398,7 +398,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -456,7 +456,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>18001</v>
+        <v>13001</v>
       </c>
       <c r="C4" s="2">
         <v>2000000</v>
